--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="配置项" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>编号</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>//*[@id="su"]</t>
+  </si>
+  <si>
+    <t>//*[@id="wqe"]</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -144,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -167,6 +173,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -174,7 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +202,75 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,60 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -265,21 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -288,13 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,13 +315,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -325,19 +331,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,145 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +550,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -554,6 +575,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,21 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -608,15 +623,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -633,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,16 +651,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,112 +672,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,7 +1252,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1288,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -1306,8 +1312,8 @@
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1555,14 +1561,249 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40.5" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
